--- a/jxls-poi/src/test/resources/org/jxls3/GroupByTest_asc.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls3/GroupByTest_asc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\2023Stuff\GitRepos\jxls\jxls-poi\src\test\resources\org\jxls3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\git-repos-2203\jxls3\jxls-poi\src\test\resources\org\jxls3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52BB33-823A-417F-AEB5-B527F49722E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D7A22-5039-472F-8727-0A8F56A64A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23407" yWindow="1209" windowWidth="19562" windowHeight="10257" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Marcus Warm:</t>
+          <t>jxlsteam:</t>
         </r>
         <r>
           <rPr>
@@ -237,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -383,7 +383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,11 +539,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/jxls-poi/src/test/resources/org/jxls3/GroupByTest_asc.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls3/GroupByTest_asc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\git-repos-2203\jxls3\jxls-poi\src\test\resources\org\jxls3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D7A22-5039-472F-8727-0A8F56A64A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CA47C6-FB2E-4974-A780-4B6C4155ABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21570" windowHeight="11385" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" var="g" groupBy="salaryGroup" groupOrder="ASC" lastCell="C3")</t>
+jx:each(items="employees" var="g" groupBy="g.salaryGroup" groupOrder="ASC" lastCell="C3")</t>
         </r>
       </text>
     </comment>
@@ -536,7 +536,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
